--- a/resultados/resultados_221128.xlsx
+++ b/resultados/resultados_221128.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9366AE-8ACF-DE45-B340-935363913599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D7C5E2-4194-404D-88A1-768C456BF63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156:B171"/>
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4363,11 +4363,17 @@
       </c>
       <c r="D155">
         <f>D138+E155</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E155">
         <f>3*F155+G155</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -4382,11 +4388,17 @@
       </c>
       <c r="D156">
         <f t="shared" ref="D156:D171" si="16">D139+E156</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E156">
         <f t="shared" ref="E156:E171" si="17">3*F156+G156</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -4401,11 +4413,17 @@
       </c>
       <c r="D157">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -4420,11 +4438,17 @@
       </c>
       <c r="D158">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E158">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -4439,11 +4463,17 @@
       </c>
       <c r="D159">
         <f t="shared" si="16"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E159">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -4458,14 +4488,20 @@
       </c>
       <c r="D160">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E160">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -4477,14 +4513,20 @@
       </c>
       <c r="D161">
         <f t="shared" si="16"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E161">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -4496,14 +4538,20 @@
       </c>
       <c r="D162">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -4515,14 +4563,20 @@
       </c>
       <c r="D163">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E163">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -4534,14 +4588,20 @@
       </c>
       <c r="D164">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E164">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -4553,14 +4613,20 @@
       </c>
       <c r="D165">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E165">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -4572,14 +4638,20 @@
       </c>
       <c r="D166">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E166">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -4591,14 +4663,20 @@
       </c>
       <c r="D167">
         <f t="shared" si="16"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E167">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -4610,14 +4688,20 @@
       </c>
       <c r="D168">
         <f t="shared" si="16"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E168">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -4629,14 +4713,20 @@
       </c>
       <c r="D169">
         <f t="shared" si="16"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E169">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -4648,14 +4738,20 @@
       </c>
       <c r="D170">
         <f t="shared" si="16"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E170">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -4667,11 +4763,17 @@
       </c>
       <c r="D171">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E171">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
